--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H2">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I2">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J2">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N2">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O2">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P2">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q2">
-        <v>69.65871887645014</v>
+        <v>258.0919261012102</v>
       </c>
       <c r="R2">
-        <v>626.9284698880512</v>
+        <v>2322.827334910892</v>
       </c>
       <c r="S2">
-        <v>0.0002096172359232865</v>
+        <v>0.0005624745973561404</v>
       </c>
       <c r="T2">
-        <v>0.0002096172359232864</v>
+        <v>0.0005624745973561403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H3">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I3">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J3">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q3">
-        <v>142.1257646812614</v>
+        <v>324.1916034918453</v>
       </c>
       <c r="R3">
-        <v>1279.131882131352</v>
+        <v>2917.724431426608</v>
       </c>
       <c r="S3">
-        <v>0.0004276852980717306</v>
+        <v>0.0007065294307920705</v>
       </c>
       <c r="T3">
-        <v>0.0004276852980717305</v>
+        <v>0.0007065294307920704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H4">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I4">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J4">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N4">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q4">
-        <v>130.7649553820636</v>
+        <v>422.4273100247511</v>
       </c>
       <c r="R4">
-        <v>1176.884598438572</v>
+        <v>3801.84579022276</v>
       </c>
       <c r="S4">
-        <v>0.000393498314998252</v>
+        <v>0.0009206201631632337</v>
       </c>
       <c r="T4">
-        <v>0.0003934983149982519</v>
+        <v>0.0009206201631632334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H5">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I5">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J5">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N5">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q5">
-        <v>44.45952308378468</v>
+        <v>72.31600862437577</v>
       </c>
       <c r="R5">
-        <v>400.1357077540621</v>
+        <v>650.844077619382</v>
       </c>
       <c r="S5">
-        <v>0.0001337877366912239</v>
+        <v>0.0001576024420750301</v>
       </c>
       <c r="T5">
-        <v>0.0001337877366912238</v>
+        <v>0.0001576024420750301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H6">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I6">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J6">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N6">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q6">
-        <v>321.841302168871</v>
+        <v>858.2643331280153</v>
       </c>
       <c r="R6">
-        <v>2896.571719519839</v>
+        <v>7724.378998152138</v>
       </c>
       <c r="S6">
-        <v>0.0009684858586941034</v>
+        <v>0.001870464886266944</v>
       </c>
       <c r="T6">
-        <v>0.0009684858586941033</v>
+        <v>0.001870464886266944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H7">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I7">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J7">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N7">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q7">
-        <v>143.0254285720567</v>
+        <v>251.1140852015084</v>
       </c>
       <c r="R7">
-        <v>1287.22885714851</v>
+        <v>2260.026766813576</v>
       </c>
       <c r="S7">
-        <v>0.0004303925694814014</v>
+        <v>0.0005472673868487654</v>
       </c>
       <c r="T7">
-        <v>0.0004303925694814013</v>
+        <v>0.0005472673868487653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.44662</v>
       </c>
       <c r="I8">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J8">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N8">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O8">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P8">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q8">
-        <v>3.853646427784445</v>
+        <v>6.259531845542222</v>
       </c>
       <c r="R8">
-        <v>34.68281785006</v>
+        <v>56.33578660988</v>
       </c>
       <c r="S8">
-        <v>1.159640495040623E-05</v>
+        <v>1.364175822020335E-05</v>
       </c>
       <c r="T8">
-        <v>1.159640495040623E-05</v>
+        <v>1.364175822020335E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.44662</v>
       </c>
       <c r="I9">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J9">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q9">
         <v>7.862654585013333</v>
@@ -1013,10 +1013,10 @@
         <v>70.76389126511999</v>
       </c>
       <c r="S9">
-        <v>2.366032490567735E-05</v>
+        <v>1.713553592575962E-05</v>
       </c>
       <c r="T9">
-        <v>2.366032490567735E-05</v>
+        <v>1.713553592575962E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.44662</v>
       </c>
       <c r="I10">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J10">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N10">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q10">
-        <v>7.234154048702223</v>
+        <v>10.24517597071111</v>
       </c>
       <c r="R10">
-        <v>65.10738643832001</v>
+        <v>92.20658373640001</v>
       </c>
       <c r="S10">
-        <v>2.176903911514327E-05</v>
+        <v>2.232790198446086E-05</v>
       </c>
       <c r="T10">
-        <v>2.176903911514327E-05</v>
+        <v>2.232790198446086E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.44662</v>
       </c>
       <c r="I11">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J11">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N11">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q11">
-        <v>2.459581299746667</v>
+        <v>1.753888103997778</v>
       </c>
       <c r="R11">
-        <v>22.13623169772</v>
+        <v>15.78499293598</v>
       </c>
       <c r="S11">
-        <v>7.401379782708038E-06</v>
+        <v>3.822349346631687E-06</v>
       </c>
       <c r="T11">
-        <v>7.401379782708035E-06</v>
+        <v>3.822349346631687E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.44662</v>
       </c>
       <c r="I12">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J12">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N12">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q12">
-        <v>17.80484344847556</v>
+        <v>20.81557918631333</v>
       </c>
       <c r="R12">
-        <v>160.24359103628</v>
+        <v>187.34021267682</v>
       </c>
       <c r="S12">
-        <v>5.357839090230593E-05</v>
+        <v>4.536459043265494E-05</v>
       </c>
       <c r="T12">
-        <v>5.357839090230593E-05</v>
+        <v>4.536459043265494E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.44662</v>
       </c>
       <c r="I13">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J13">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N13">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q13">
-        <v>7.912425620066666</v>
+        <v>6.090297503404445</v>
       </c>
       <c r="R13">
-        <v>71.21183058059999</v>
+        <v>54.81267753064</v>
       </c>
       <c r="S13">
-        <v>2.381009606089232E-05</v>
+        <v>1.327293607264245E-05</v>
       </c>
       <c r="T13">
-        <v>2.381009606089232E-05</v>
+        <v>1.327293607264245E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H14">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I14">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J14">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N14">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O14">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P14">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q14">
-        <v>1784.470548540345</v>
+        <v>4180.274608763851</v>
       </c>
       <c r="R14">
-        <v>16060.2349368631</v>
+        <v>37622.47147887466</v>
       </c>
       <c r="S14">
-        <v>0.005369834386919752</v>
+        <v>0.009110313185389952</v>
       </c>
       <c r="T14">
-        <v>0.005369834386919751</v>
+        <v>0.00911031318538995</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H15">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I15">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J15">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q15">
-        <v>3640.882941190995</v>
+        <v>5250.880757579205</v>
       </c>
       <c r="R15">
-        <v>32767.94647071895</v>
+        <v>47257.92681821285</v>
       </c>
       <c r="S15">
-        <v>0.01095615639739705</v>
+        <v>0.01144354681876513</v>
       </c>
       <c r="T15">
-        <v>0.01095615639739705</v>
+        <v>0.01144354681876513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H16">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I16">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J16">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N16">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q16">
-        <v>3349.849314259686</v>
+        <v>6841.989150223952</v>
       </c>
       <c r="R16">
-        <v>30148.64382833718</v>
+        <v>61577.90235201557</v>
       </c>
       <c r="S16">
-        <v>0.01008037709191955</v>
+        <v>0.01491114096640954</v>
       </c>
       <c r="T16">
-        <v>0.01008037709191955</v>
+        <v>0.01491114096640954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H17">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I17">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J17">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N17">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q17">
-        <v>1138.934376411351</v>
+        <v>1171.291094712816</v>
       </c>
       <c r="R17">
-        <v>10250.40938770216</v>
+        <v>10541.61985241534</v>
       </c>
       <c r="S17">
-        <v>0.003427284907504544</v>
+        <v>0.002552662134138472</v>
       </c>
       <c r="T17">
-        <v>0.003427284907504544</v>
+        <v>0.002552662134138471</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H18">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I18">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J18">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N18">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q18">
-        <v>8244.715583168527</v>
+        <v>13901.17332835798</v>
       </c>
       <c r="R18">
-        <v>74202.44024851675</v>
+        <v>125110.5599552218</v>
       </c>
       <c r="S18">
-        <v>0.02481002406292755</v>
+        <v>0.03029562756480745</v>
       </c>
       <c r="T18">
-        <v>0.02481002406292755</v>
+        <v>0.03029562756480744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H19">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I19">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J19">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N19">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q19">
-        <v>3663.929930033223</v>
+        <v>4067.255609767429</v>
       </c>
       <c r="R19">
-        <v>32975.36937029901</v>
+        <v>36605.30048790686</v>
       </c>
       <c r="S19">
-        <v>0.01102550946870506</v>
+        <v>0.008864004372423918</v>
       </c>
       <c r="T19">
-        <v>0.01102550946870506</v>
+        <v>0.008864004372423915</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H20">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I20">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J20">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N20">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O20">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P20">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q20">
-        <v>1.639650538218223</v>
+        <v>2.122469309831778</v>
       </c>
       <c r="R20">
-        <v>14.756854843964</v>
+        <v>19.102223788486</v>
       </c>
       <c r="S20">
-        <v>4.934041556392001E-06</v>
+        <v>4.625619594083057E-06</v>
       </c>
       <c r="T20">
-        <v>4.934041556391999E-06</v>
+        <v>4.625619594083057E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H21">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I21">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J21">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q21">
-        <v>3.345404427658667</v>
+        <v>2.666052903362667</v>
       </c>
       <c r="R21">
-        <v>30.108639848928</v>
+        <v>23.994476130264</v>
       </c>
       <c r="S21">
-        <v>1.006700152518037E-05</v>
+        <v>5.810282622948169E-06</v>
       </c>
       <c r="T21">
-        <v>1.006700152518037E-05</v>
+        <v>5.810282622948169E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H22">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I22">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J22">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N22">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q22">
-        <v>3.077989847223112</v>
+        <v>3.473913402508889</v>
       </c>
       <c r="R22">
-        <v>27.701908625008</v>
+        <v>31.26522062258</v>
       </c>
       <c r="S22">
-        <v>9.262296728701013E-06</v>
+        <v>7.570899531200504E-06</v>
       </c>
       <c r="T22">
-        <v>9.26229672870101E-06</v>
+        <v>7.570899531200501E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H23">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I23">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J23">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N23">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q23">
-        <v>1.046503325485334</v>
+        <v>0.5947048062812222</v>
       </c>
       <c r="R23">
-        <v>9.418529929368001</v>
+        <v>5.352343256530999</v>
       </c>
       <c r="S23">
-        <v>3.149141098357537E-06</v>
+        <v>1.296074431741875E-06</v>
       </c>
       <c r="T23">
-        <v>3.149141098357536E-06</v>
+        <v>1.296074431741875E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H24">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I24">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J24">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N24">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q24">
-        <v>7.575609670025779</v>
+        <v>7.058104196847667</v>
       </c>
       <c r="R24">
-        <v>68.180487030232</v>
+        <v>63.522937771629</v>
       </c>
       <c r="S24">
-        <v>2.27965484447257E-05</v>
+        <v>1.53821329329874E-05</v>
       </c>
       <c r="T24">
-        <v>2.27965484447257E-05</v>
+        <v>1.53821329329874E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H25">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I25">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J25">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N25">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q25">
-        <v>3.366581021293334</v>
+        <v>2.065085673767556</v>
       </c>
       <c r="R25">
-        <v>30.29922919164</v>
+        <v>18.585771063908</v>
       </c>
       <c r="S25">
-        <v>1.013072619734729E-05</v>
+        <v>4.500560131442613E-06</v>
       </c>
       <c r="T25">
-        <v>1.013072619734729E-05</v>
+        <v>4.500560131442612E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H26">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I26">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J26">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N26">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O26">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P26">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q26">
-        <v>23666.03689448616</v>
+        <v>47198.44283292567</v>
       </c>
       <c r="R26">
-        <v>212994.3320503754</v>
+        <v>424785.9854963311</v>
       </c>
       <c r="S26">
-        <v>0.07121591265379749</v>
+        <v>0.1028622844942308</v>
       </c>
       <c r="T26">
-        <v>0.07121591265379748</v>
+        <v>0.1028622844942308</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H27">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I27">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J27">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>158.443176</v>
       </c>
       <c r="O27">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P27">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q27">
-        <v>48286.18218732303</v>
+        <v>59286.39107572849</v>
       </c>
       <c r="R27">
-        <v>434575.6396859073</v>
+        <v>533577.5196815565</v>
       </c>
       <c r="S27">
-        <v>0.1453029313006322</v>
+        <v>0.1292062462114451</v>
       </c>
       <c r="T27">
-        <v>0.1453029313006322</v>
+        <v>0.1292062462114451</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H28">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I28">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J28">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N28">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O28">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P28">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q28">
-        <v>44426.43086885696</v>
+        <v>77251.20093625547</v>
       </c>
       <c r="R28">
-        <v>399837.8778197126</v>
+        <v>695260.8084262991</v>
       </c>
       <c r="S28">
-        <v>0.1336881554939866</v>
+        <v>0.1683579908844535</v>
       </c>
       <c r="T28">
-        <v>0.1336881554939866</v>
+        <v>0.1683579908844535</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H29">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I29">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J29">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N29">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O29">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P29">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q29">
-        <v>15104.79564630384</v>
+        <v>13224.75697137647</v>
       </c>
       <c r="R29">
-        <v>135943.1608167346</v>
+        <v>119022.8127423882</v>
       </c>
       <c r="S29">
-        <v>0.04545339856422086</v>
+        <v>0.0288214744450811</v>
       </c>
       <c r="T29">
-        <v>0.04545339856422085</v>
+        <v>0.0288214744450811</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H30">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I30">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J30">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N30">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O30">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P30">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q30">
-        <v>109343.2129408999</v>
+        <v>156954.6970128631</v>
       </c>
       <c r="R30">
-        <v>984088.9164680989</v>
+        <v>1412592.273115768</v>
       </c>
       <c r="S30">
-        <v>0.3290359402718144</v>
+        <v>0.342060409789205</v>
       </c>
       <c r="T30">
-        <v>0.3290359402718144</v>
+        <v>0.342060409789205</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H31">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I31">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J31">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N31">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O31">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P31">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q31">
-        <v>48591.83637068467</v>
+        <v>45922.37337280365</v>
       </c>
       <c r="R31">
-        <v>437326.527336162</v>
+        <v>413301.3603552328</v>
       </c>
       <c r="S31">
-        <v>0.1462227068305023</v>
+        <v>0.1000812728344583</v>
       </c>
       <c r="T31">
-        <v>0.1462227068305023</v>
+        <v>0.1000812728344583</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H32">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I32">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J32">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N32">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O32">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P32">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q32">
-        <v>1647.976285154123</v>
+        <v>2519.373565501117</v>
       </c>
       <c r="R32">
-        <v>14831.78656638711</v>
+        <v>22674.36208951005</v>
       </c>
       <c r="S32">
-        <v>0.004959095420256418</v>
+        <v>0.005490615895087079</v>
       </c>
       <c r="T32">
-        <v>0.004959095420256417</v>
+        <v>0.005490615895087079</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H33">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I33">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J33">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>158.443176</v>
       </c>
       <c r="O33">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P33">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q33">
-        <v>3362.391578282357</v>
+        <v>3164.60792994541</v>
       </c>
       <c r="R33">
-        <v>30261.52420454122</v>
+        <v>28481.47136950869</v>
       </c>
       <c r="S33">
-        <v>0.01011811931226265</v>
+        <v>0.006896812302791934</v>
       </c>
       <c r="T33">
-        <v>0.01011811931226264</v>
+        <v>0.006896812302791934</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H34">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I34">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J34">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N34">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O34">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P34">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q34">
-        <v>3093.61913159922</v>
+        <v>4123.539291983736</v>
       </c>
       <c r="R34">
-        <v>27842.57218439298</v>
+        <v>37111.85362785362</v>
       </c>
       <c r="S34">
-        <v>0.009309328420400505</v>
+        <v>0.008986666642300285</v>
       </c>
       <c r="T34">
-        <v>0.009309328420400503</v>
+        <v>0.008986666642300283</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H35">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I35">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J35">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N35">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O35">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P35">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q35">
-        <v>1051.817215032211</v>
+        <v>705.9153040663398</v>
       </c>
       <c r="R35">
-        <v>9466.354935289897</v>
+        <v>6353.237736597059</v>
       </c>
       <c r="S35">
-        <v>0.003165131671494458</v>
+        <v>0.001538441873871505</v>
       </c>
       <c r="T35">
-        <v>0.003165131671494456</v>
+        <v>0.001538441873871505</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H36">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I36">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J36">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N36">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O36">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P36">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q36">
-        <v>7614.076774770146</v>
+        <v>8377.977977688575</v>
       </c>
       <c r="R36">
-        <v>68526.69097293132</v>
+        <v>75401.80179919717</v>
       </c>
       <c r="S36">
-        <v>0.02291230377730349</v>
+        <v>0.01825860987147283</v>
       </c>
       <c r="T36">
-        <v>0.02291230377730348</v>
+        <v>0.01825860987147283</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H37">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I37">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J37">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N37">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O37">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P37">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q37">
-        <v>3383.675701512787</v>
+        <v>2451.25912204469</v>
       </c>
       <c r="R37">
-        <v>30453.08131361508</v>
+        <v>22061.33209840221</v>
       </c>
       <c r="S37">
-        <v>0.01018216756282732</v>
+        <v>0.005342170165939135</v>
       </c>
       <c r="T37">
-        <v>0.01018216756282732</v>
+        <v>0.005342170165939134</v>
       </c>
     </row>
   </sheetData>
